--- a/cpu_affinity/fio_logs/ext4_results.xlsx
+++ b/cpu_affinity/fio_logs/ext4_results.xlsx
@@ -494,7 +494,7 @@
         <v>19.35</v>
       </c>
       <c r="J2">
-        <v>33.75</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -526,7 +526,7 @@
         <v>17.65</v>
       </c>
       <c r="J3">
-        <v>15.44</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -558,7 +558,7 @@
         <v>14.53</v>
       </c>
       <c r="J4">
-        <v>18.43</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -590,7 +590,7 @@
         <v>8.15</v>
       </c>
       <c r="J5">
-        <v>18.69</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -622,7 +622,7 @@
         <v>4.63</v>
       </c>
       <c r="J6">
-        <v>16.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -654,7 +654,7 @@
         <v>2.34</v>
       </c>
       <c r="J7">
-        <v>6.62</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -782,7 +782,7 @@
         <v>5.02</v>
       </c>
       <c r="J11">
-        <v>84.73999999999999</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -814,7 +814,7 @@
         <v>4.36</v>
       </c>
       <c r="J12">
-        <v>82.45</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -846,7 +846,7 @@
         <v>3.52</v>
       </c>
       <c r="J13">
-        <v>61.51</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -878,7 +878,7 @@
         <v>19.75</v>
       </c>
       <c r="J14">
-        <v>37</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -942,7 +942,7 @@
         <v>27.16</v>
       </c>
       <c r="J16">
-        <v>38.15</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -974,7 +974,7 @@
         <v>8.27</v>
       </c>
       <c r="J17">
-        <v>11.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1006,7 +1006,7 @@
         <v>3.13</v>
       </c>
       <c r="J18">
-        <v>7.03</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1038,7 +1038,7 @@
         <v>1.34</v>
       </c>
       <c r="J19">
-        <v>1.89</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1198,7 +1198,7 @@
         <v>3.79</v>
       </c>
       <c r="J24">
-        <v>28.26</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1230,7 +1230,7 @@
         <v>1.15</v>
       </c>
       <c r="J25">
-        <v>5.19</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1294,7 +1294,7 @@
         <v>43.67</v>
       </c>
       <c r="J27">
-        <v>29.44</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1326,7 +1326,7 @@
         <v>35.96</v>
       </c>
       <c r="J28">
-        <v>54.49</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1358,7 +1358,7 @@
         <v>17.82</v>
       </c>
       <c r="J29">
-        <v>23.28</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1390,7 +1390,7 @@
         <v>10.27</v>
       </c>
       <c r="J30">
-        <v>21.84</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1422,7 +1422,7 @@
         <v>5.33</v>
       </c>
       <c r="J31">
-        <v>14.38</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1678,7 +1678,7 @@
         <v>36.53</v>
       </c>
       <c r="J39">
-        <v>76.7</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1710,7 +1710,7 @@
         <v>14.38</v>
       </c>
       <c r="J40">
-        <v>18.51</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1742,7 +1742,7 @@
         <v>5.38</v>
       </c>
       <c r="J41">
-        <v>3.8</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1774,7 +1774,7 @@
         <v>2.44</v>
       </c>
       <c r="J42">
-        <v>6.62</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1806,7 +1806,7 @@
         <v>1.63</v>
       </c>
       <c r="J43">
-        <v>3.34</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1934,7 +1934,7 @@
         <v>4.22</v>
       </c>
       <c r="J47">
-        <v>96.04000000000001</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1966,7 +1966,7 @@
         <v>3.1</v>
       </c>
       <c r="J48">
-        <v>42.56</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1998,7 +1998,7 @@
         <v>1.87</v>
       </c>
       <c r="J49">
-        <v>22.92</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>

--- a/cpu_affinity/fio_logs/ext4_results.xlsx
+++ b/cpu_affinity/fio_logs/ext4_results.xlsx
@@ -476,25 +476,25 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>9.204000000000001</v>
+        <v>8.837</v>
       </c>
       <c r="E2">
-        <v>1150.56</v>
+        <v>1104.64</v>
       </c>
       <c r="F2">
-        <v>108.46</v>
+        <v>112.9</v>
       </c>
       <c r="G2">
-        <v>185.34</v>
+        <v>197.63</v>
       </c>
       <c r="H2">
-        <v>199.68</v>
+        <v>203.78</v>
       </c>
       <c r="I2">
-        <v>19.35</v>
+        <v>19.01</v>
       </c>
       <c r="J2">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -508,25 +508,25 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>16.821</v>
+        <v>16.047</v>
       </c>
       <c r="E3">
-        <v>2102.67</v>
+        <v>2005.88</v>
       </c>
       <c r="F3">
-        <v>118.47</v>
+        <v>123.08</v>
       </c>
       <c r="G3">
-        <v>216.06</v>
+        <v>226.3</v>
       </c>
       <c r="H3">
-        <v>252.93</v>
+        <v>261.12</v>
       </c>
       <c r="I3">
-        <v>17.65</v>
+        <v>16.75</v>
       </c>
       <c r="J3">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -540,25 +540,25 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>23.174</v>
+        <v>24.509</v>
       </c>
       <c r="E4">
-        <v>2896.75</v>
+        <v>3063.58</v>
       </c>
       <c r="F4">
-        <v>165.39</v>
+        <v>159.37</v>
       </c>
       <c r="G4">
+        <v>325.63</v>
+      </c>
+      <c r="H4">
         <v>395.26</v>
       </c>
-      <c r="H4">
-        <v>489.47</v>
-      </c>
       <c r="I4">
-        <v>14.53</v>
+        <v>14.21</v>
       </c>
       <c r="J4">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -572,22 +572,22 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>26.458</v>
+        <v>26.771</v>
       </c>
       <c r="E5">
-        <v>3307.23</v>
+        <v>3346.41</v>
       </c>
       <c r="F5">
-        <v>269.27</v>
+        <v>263.94</v>
       </c>
       <c r="G5">
-        <v>790.53</v>
+        <v>798.72</v>
       </c>
       <c r="H5">
-        <v>1003.52</v>
+        <v>1011.71</v>
       </c>
       <c r="I5">
-        <v>8.15</v>
+        <v>8.35</v>
       </c>
       <c r="J5">
         <v>0.19</v>
@@ -604,22 +604,22 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>27.227</v>
+        <v>29.668</v>
       </c>
       <c r="E6">
-        <v>3403.41</v>
+        <v>3708.47</v>
       </c>
       <c r="F6">
-        <v>513.45</v>
+        <v>456.95</v>
       </c>
       <c r="G6">
-        <v>1581.06</v>
+        <v>1564.67</v>
       </c>
       <c r="H6">
         <v>2146.3</v>
       </c>
       <c r="I6">
-        <v>4.63</v>
+        <v>5.12</v>
       </c>
       <c r="J6">
         <v>0.16</v>
@@ -636,25 +636,25 @@
         <v>32</v>
       </c>
       <c r="D7">
-        <v>28.181</v>
+        <v>32.153</v>
       </c>
       <c r="E7">
-        <v>3522.68</v>
+        <v>4019.13</v>
       </c>
       <c r="F7">
-        <v>974.03</v>
+        <v>859.08</v>
       </c>
       <c r="G7">
-        <v>2998.27</v>
+        <v>3129.34</v>
       </c>
       <c r="H7">
-        <v>4620.29</v>
+        <v>4079.62</v>
       </c>
       <c r="I7">
-        <v>2.34</v>
+        <v>3.85</v>
       </c>
       <c r="J7">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -668,25 +668,25 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>18.838</v>
+        <v>18.253</v>
       </c>
       <c r="E8">
-        <v>73.58</v>
+        <v>71.3</v>
       </c>
       <c r="F8">
-        <v>52.54</v>
+        <v>54.19</v>
       </c>
       <c r="G8">
         <v>99.84</v>
       </c>
       <c r="H8">
-        <v>102.91</v>
+        <v>104.96</v>
       </c>
       <c r="I8">
-        <v>12.24</v>
+        <v>13.7</v>
       </c>
       <c r="J8">
-        <v>2.77</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -700,25 +700,25 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>41.469</v>
+        <v>40.82</v>
       </c>
       <c r="E9">
-        <v>161.99</v>
+        <v>159.45</v>
       </c>
       <c r="F9">
-        <v>46.75</v>
+        <v>48.61</v>
       </c>
       <c r="G9">
-        <v>91.65000000000001</v>
+        <v>94.72</v>
       </c>
       <c r="H9">
-        <v>108.03</v>
+        <v>111.1</v>
       </c>
       <c r="I9">
-        <v>9.59</v>
+        <v>9.74</v>
       </c>
       <c r="J9">
-        <v>1.37</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -732,25 +732,25 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>87.46899999999999</v>
+        <v>84.672</v>
       </c>
       <c r="E10">
-        <v>341.68</v>
+        <v>330.75</v>
       </c>
       <c r="F10">
-        <v>44.35</v>
+        <v>46.1</v>
       </c>
       <c r="G10">
-        <v>87.55</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="H10">
-        <v>117.25</v>
+        <v>119.3</v>
       </c>
       <c r="I10">
-        <v>5.87</v>
+        <v>5.95</v>
       </c>
       <c r="J10">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -764,25 +764,25 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>163.126</v>
+        <v>160.345</v>
       </c>
       <c r="E11">
-        <v>637.21</v>
+        <v>626.35</v>
       </c>
       <c r="F11">
-        <v>47.5</v>
+        <v>49.21</v>
       </c>
       <c r="G11">
-        <v>110.08</v>
+        <v>113.15</v>
       </c>
       <c r="H11">
-        <v>144.38</v>
+        <v>148.48</v>
       </c>
       <c r="I11">
-        <v>5.02</v>
+        <v>4.97</v>
       </c>
       <c r="J11">
-        <v>0.85</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -796,25 +796,25 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>268.866</v>
+        <v>266.052</v>
       </c>
       <c r="E12">
-        <v>1050.26</v>
+        <v>1039.26</v>
       </c>
       <c r="F12">
-        <v>58.27</v>
+        <v>59.45</v>
       </c>
       <c r="G12">
-        <v>152.58</v>
+        <v>154.62</v>
       </c>
       <c r="H12">
-        <v>211.97</v>
+        <v>216.06</v>
       </c>
       <c r="I12">
-        <v>4.36</v>
+        <v>4.53</v>
       </c>
       <c r="J12">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -828,25 +828,25 @@
         <v>32</v>
       </c>
       <c r="D13">
-        <v>372.116</v>
+        <v>367.486</v>
       </c>
       <c r="E13">
-        <v>1453.58</v>
+        <v>1435.49</v>
       </c>
       <c r="F13">
-        <v>85</v>
+        <v>86.52</v>
       </c>
       <c r="G13">
-        <v>257.02</v>
+        <v>264.19</v>
       </c>
       <c r="H13">
-        <v>378.88</v>
+        <v>382.98</v>
       </c>
       <c r="I13">
-        <v>3.52</v>
+        <v>3.6</v>
       </c>
       <c r="J13">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -860,25 +860,25 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>3.787</v>
+        <v>5.757</v>
       </c>
       <c r="E14">
-        <v>473.42</v>
+        <v>719.61</v>
       </c>
       <c r="F14">
-        <v>26.47</v>
+        <v>30.36</v>
       </c>
       <c r="G14">
-        <v>28.29</v>
+        <v>105.98</v>
       </c>
       <c r="H14">
-        <v>203.78</v>
+        <v>179.2</v>
       </c>
       <c r="I14">
-        <v>19.75</v>
+        <v>13.36</v>
       </c>
       <c r="J14">
-        <v>0.37</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -892,25 +892,25 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>22.756</v>
+        <v>14.538</v>
       </c>
       <c r="E15">
-        <v>2844.44</v>
+        <v>1817.21</v>
       </c>
       <c r="F15">
-        <v>24.4</v>
+        <v>30.29</v>
       </c>
       <c r="G15">
-        <v>31.36</v>
+        <v>96.77</v>
       </c>
       <c r="H15">
-        <v>109.06</v>
+        <v>177.15</v>
       </c>
       <c r="I15">
-        <v>43.46</v>
+        <v>19.77</v>
       </c>
       <c r="J15">
-        <v>1.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -924,22 +924,22 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>24.957</v>
+        <v>25.68</v>
       </c>
       <c r="E16">
-        <v>3119.57</v>
+        <v>3210.03</v>
       </c>
       <c r="F16">
-        <v>31.83</v>
+        <v>30.44</v>
       </c>
       <c r="G16">
-        <v>38.66</v>
+        <v>34.56</v>
       </c>
       <c r="H16">
-        <v>150.53</v>
+        <v>136.19</v>
       </c>
       <c r="I16">
-        <v>27.16</v>
+        <v>20.31</v>
       </c>
       <c r="J16">
         <v>0.38</v>
@@ -956,25 +956,25 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>10.213</v>
+        <v>27.723</v>
       </c>
       <c r="E17">
-        <v>1276.61</v>
+        <v>3465.31</v>
       </c>
       <c r="F17">
-        <v>53.15</v>
+        <v>51.02</v>
       </c>
       <c r="G17">
-        <v>69.12</v>
+        <v>101.89</v>
       </c>
       <c r="H17">
-        <v>154.62</v>
+        <v>296.96</v>
       </c>
       <c r="I17">
-        <v>8.27</v>
+        <v>17.05</v>
       </c>
       <c r="J17">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -988,25 +988,25 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>3.806</v>
+        <v>25.685</v>
       </c>
       <c r="E18">
-        <v>475.81</v>
+        <v>3210.66</v>
       </c>
       <c r="F18">
-        <v>1444.65</v>
+        <v>363.07</v>
       </c>
       <c r="G18">
-        <v>228.35</v>
+        <v>187.39</v>
       </c>
       <c r="H18">
-        <v>50069.5</v>
+        <v>856.0599999999999</v>
       </c>
       <c r="I18">
-        <v>3.13</v>
+        <v>10.76</v>
       </c>
       <c r="J18">
-        <v>0.07000000000000001</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1020,25 +1020,25 @@
         <v>32</v>
       </c>
       <c r="D19">
-        <v>2.84</v>
+        <v>6.834</v>
       </c>
       <c r="E19">
-        <v>355</v>
+        <v>854.29</v>
       </c>
       <c r="F19">
-        <v>8629.84</v>
+        <v>3179.29</v>
       </c>
       <c r="G19">
-        <v>63700.99</v>
+        <v>634.88</v>
       </c>
       <c r="H19">
-        <v>80216.06</v>
+        <v>105381.89</v>
       </c>
       <c r="I19">
-        <v>1.34</v>
+        <v>2.22</v>
       </c>
       <c r="J19">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1052,25 +1052,25 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>142.083</v>
+        <v>135.826</v>
       </c>
       <c r="E20">
-        <v>555.01</v>
+        <v>530.5700000000001</v>
       </c>
       <c r="F20">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="G20">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="H20">
-        <v>2.42</v>
+        <v>4.96</v>
       </c>
       <c r="I20">
-        <v>27.98</v>
+        <v>20.79</v>
       </c>
       <c r="J20">
-        <v>2.49</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1084,25 +1084,25 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>547.273</v>
+        <v>234.266</v>
       </c>
       <c r="E21">
-        <v>2137.79</v>
+        <v>915.1</v>
       </c>
       <c r="F21">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="G21">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="H21">
-        <v>2.67</v>
+        <v>2.51</v>
       </c>
       <c r="I21">
-        <v>46.73</v>
+        <v>16.56</v>
       </c>
       <c r="J21">
-        <v>7.7</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1116,25 +1116,25 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>773.2859999999999</v>
+        <v>323.136</v>
       </c>
       <c r="E22">
-        <v>3020.65</v>
+        <v>1262.25</v>
       </c>
       <c r="F22">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="G22">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="H22">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="I22">
-        <v>33.18</v>
+        <v>12.14</v>
       </c>
       <c r="J22">
-        <v>4.03</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1148,25 +1148,25 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <v>342.728</v>
+        <v>282.027</v>
       </c>
       <c r="E23">
-        <v>1338.78</v>
+        <v>1101.67</v>
       </c>
       <c r="F23">
-        <v>1.9</v>
+        <v>2.69</v>
       </c>
       <c r="G23">
-        <v>3.31</v>
+        <v>3.02</v>
       </c>
       <c r="H23">
-        <v>4.26</v>
+        <v>5.41</v>
       </c>
       <c r="I23">
-        <v>11.45</v>
+        <v>8.15</v>
       </c>
       <c r="J23">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1180,25 +1180,25 @@
         <v>16</v>
       </c>
       <c r="D24">
-        <v>161.761</v>
+        <v>224.438</v>
       </c>
       <c r="E24">
-        <v>631.88</v>
+        <v>876.71</v>
       </c>
       <c r="F24">
-        <v>30.38</v>
+        <v>30.01</v>
       </c>
       <c r="G24">
-        <v>4.51</v>
+        <v>3.73</v>
       </c>
       <c r="H24">
-        <v>6.24</v>
+        <v>7.71</v>
       </c>
       <c r="I24">
-        <v>3.79</v>
+        <v>4.52</v>
       </c>
       <c r="J24">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1212,25 +1212,25 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>94.53700000000001</v>
+        <v>371.523</v>
       </c>
       <c r="E25">
-        <v>369.28</v>
+        <v>1451.26</v>
       </c>
       <c r="F25">
-        <v>254.7</v>
+        <v>37.32</v>
       </c>
       <c r="G25">
-        <v>5.66</v>
+        <v>4.45</v>
       </c>
       <c r="H25">
-        <v>10.05</v>
+        <v>7.65</v>
       </c>
       <c r="I25">
-        <v>1.15</v>
+        <v>4.77</v>
       </c>
       <c r="J25">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1244,25 +1244,25 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>20.583</v>
+        <v>13.54</v>
       </c>
       <c r="E26">
-        <v>2572.86</v>
+        <v>1692.56</v>
       </c>
       <c r="F26">
-        <v>48.35</v>
+        <v>73.56999999999999</v>
       </c>
       <c r="G26">
-        <v>132.1</v>
+        <v>264.19</v>
       </c>
       <c r="H26">
-        <v>216.06</v>
+        <v>370.69</v>
       </c>
       <c r="I26">
-        <v>50.38</v>
+        <v>48.18</v>
       </c>
       <c r="J26">
-        <v>3.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1276,25 +1276,25 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>32.063</v>
+        <v>20.128</v>
       </c>
       <c r="E27">
-        <v>4007.83</v>
+        <v>2515.97</v>
       </c>
       <c r="F27">
-        <v>62.11</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="G27">
-        <v>175.1</v>
+        <v>203.78</v>
       </c>
       <c r="H27">
-        <v>197.63</v>
+        <v>242.69</v>
       </c>
       <c r="I27">
-        <v>43.67</v>
+        <v>37.48</v>
       </c>
       <c r="J27">
-        <v>0.29</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1308,25 +1308,25 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>33.886</v>
+        <v>21.1</v>
       </c>
       <c r="E28">
-        <v>4235.78</v>
+        <v>2637.48</v>
       </c>
       <c r="F28">
-        <v>117.39</v>
+        <v>189.04</v>
       </c>
       <c r="G28">
-        <v>374.78</v>
+        <v>602.11</v>
       </c>
       <c r="H28">
-        <v>505.86</v>
+        <v>700.42</v>
       </c>
       <c r="I28">
-        <v>35.96</v>
+        <v>28.04</v>
       </c>
       <c r="J28">
-        <v>0.54</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1340,25 +1340,25 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>32.204</v>
+        <v>23.381</v>
       </c>
       <c r="E29">
-        <v>4025.55</v>
+        <v>2922.58</v>
       </c>
       <c r="F29">
-        <v>242.2</v>
+        <v>333.6</v>
       </c>
       <c r="G29">
-        <v>831.49</v>
+        <v>1138.69</v>
       </c>
       <c r="H29">
-        <v>1171.46</v>
+        <v>1433.6</v>
       </c>
       <c r="I29">
-        <v>17.82</v>
+        <v>18.39</v>
       </c>
       <c r="J29">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1372,25 +1372,25 @@
         <v>16</v>
       </c>
       <c r="D30">
-        <v>30.603</v>
+        <v>19.944</v>
       </c>
       <c r="E30">
-        <v>3825.36</v>
+        <v>2493</v>
       </c>
       <c r="F30">
-        <v>502.44</v>
+        <v>775.63</v>
       </c>
       <c r="G30">
-        <v>1908.74</v>
+        <v>3129.34</v>
       </c>
       <c r="H30">
-        <v>3162.11</v>
+        <v>3719.17</v>
       </c>
       <c r="I30">
-        <v>10.27</v>
+        <v>10.16</v>
       </c>
       <c r="J30">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1404,22 +1404,22 @@
         <v>32</v>
       </c>
       <c r="D31">
-        <v>31.097</v>
+        <v>20.705</v>
       </c>
       <c r="E31">
-        <v>3887.07</v>
+        <v>2588.11</v>
       </c>
       <c r="F31">
-        <v>1009.86</v>
+        <v>1543.03</v>
       </c>
       <c r="G31">
-        <v>3948.54</v>
+        <v>5865.47</v>
       </c>
       <c r="H31">
-        <v>7110.66</v>
+        <v>6651.9</v>
       </c>
       <c r="I31">
-        <v>5.33</v>
+        <v>5.26</v>
       </c>
       <c r="J31">
         <v>0.14</v>
@@ -1436,25 +1436,25 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>530.6559999999999</v>
+        <v>431.158</v>
       </c>
       <c r="E32">
-        <v>2072.87</v>
+        <v>1684.21</v>
       </c>
       <c r="F32">
-        <v>1.79</v>
+        <v>2.2</v>
       </c>
       <c r="G32">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="H32">
-        <v>36.61</v>
+        <v>42.24</v>
       </c>
       <c r="I32">
-        <v>44.42</v>
+        <v>42.17</v>
       </c>
       <c r="J32">
-        <v>7.91</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1468,10 +1468,10 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>657.003</v>
+        <v>654.542</v>
       </c>
       <c r="E33">
-        <v>2566.42</v>
+        <v>2556.8</v>
       </c>
       <c r="F33">
         <v>2.87</v>
@@ -1480,13 +1480,13 @@
         <v>0.85</v>
       </c>
       <c r="H33">
-        <v>59.14</v>
+        <v>138.24</v>
       </c>
       <c r="I33">
-        <v>35.83</v>
+        <v>36.18</v>
       </c>
       <c r="J33">
-        <v>8.81</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1500,25 +1500,25 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>592.4160000000001</v>
+        <v>744.727</v>
       </c>
       <c r="E34">
-        <v>2314.12</v>
+        <v>2909.09</v>
       </c>
       <c r="F34">
-        <v>6.47</v>
+        <v>5.12</v>
       </c>
       <c r="G34">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="H34">
-        <v>305.15</v>
+        <v>236.54</v>
       </c>
       <c r="I34">
-        <v>30.46</v>
+        <v>32.08</v>
       </c>
       <c r="J34">
-        <v>6.77</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1532,25 +1532,25 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <v>557.457</v>
+        <v>620.827</v>
       </c>
       <c r="E35">
-        <v>2177.57</v>
+        <v>2425.1</v>
       </c>
       <c r="F35">
-        <v>14.01</v>
+        <v>12.52</v>
       </c>
       <c r="G35">
-        <v>1.85</v>
+        <v>2.16</v>
       </c>
       <c r="H35">
-        <v>485.38</v>
+        <v>514.05</v>
       </c>
       <c r="I35">
-        <v>16.81</v>
+        <v>19.48</v>
       </c>
       <c r="J35">
-        <v>4.56</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1564,25 +1564,25 @@
         <v>16</v>
       </c>
       <c r="D36">
-        <v>524.747</v>
+        <v>556.052</v>
       </c>
       <c r="E36">
-        <v>2049.79</v>
+        <v>2172.08</v>
       </c>
       <c r="F36">
-        <v>30.05</v>
+        <v>28.38</v>
       </c>
       <c r="G36">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="H36">
-        <v>1236.99</v>
+        <v>1187.84</v>
       </c>
       <c r="I36">
-        <v>9.890000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="J36">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1596,25 +1596,25 @@
         <v>32</v>
       </c>
       <c r="D37">
-        <v>416.784</v>
+        <v>584.409</v>
       </c>
       <c r="E37">
-        <v>1628.06</v>
+        <v>2282.85</v>
       </c>
       <c r="F37">
-        <v>76.31999999999999</v>
+        <v>54.38</v>
       </c>
       <c r="G37">
-        <v>2.26</v>
+        <v>2.13</v>
       </c>
       <c r="H37">
-        <v>2441.22</v>
+        <v>2146.3</v>
       </c>
       <c r="I37">
-        <v>4.02</v>
+        <v>4.71</v>
       </c>
       <c r="J37">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1628,25 +1628,25 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>12.82</v>
+        <v>3.418</v>
       </c>
       <c r="E38">
-        <v>1602.5</v>
+        <v>427.2</v>
       </c>
       <c r="F38">
-        <v>25.82</v>
+        <v>25.73</v>
       </c>
       <c r="G38">
         <v>26.5</v>
       </c>
       <c r="H38">
-        <v>49.41</v>
+        <v>29.31</v>
       </c>
       <c r="I38">
-        <v>50.94</v>
+        <v>15.65</v>
       </c>
       <c r="J38">
-        <v>2.51</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1660,25 +1660,25 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>15.693</v>
+        <v>5.193</v>
       </c>
       <c r="E39">
-        <v>1961.69</v>
+        <v>649.13</v>
       </c>
       <c r="F39">
-        <v>26.08</v>
+        <v>27.18</v>
       </c>
       <c r="G39">
-        <v>27.78</v>
+        <v>28.29</v>
       </c>
       <c r="H39">
-        <v>48.38</v>
+        <v>31.1</v>
       </c>
       <c r="I39">
-        <v>36.53</v>
+        <v>11.3</v>
       </c>
       <c r="J39">
-        <v>0.77</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1692,25 +1692,25 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>11.022</v>
+        <v>6.263</v>
       </c>
       <c r="E40">
-        <v>1377.73</v>
+        <v>782.87</v>
       </c>
       <c r="F40">
-        <v>30.47</v>
+        <v>30.85</v>
       </c>
       <c r="G40">
-        <v>33.54</v>
+        <v>33.02</v>
       </c>
       <c r="H40">
-        <v>41.73</v>
+        <v>40.19</v>
       </c>
       <c r="I40">
-        <v>14.38</v>
+        <v>7.44</v>
       </c>
       <c r="J40">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1724,25 +1724,25 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>4.992</v>
+        <v>5.6</v>
       </c>
       <c r="E41">
-        <v>624.01</v>
+        <v>699.99</v>
       </c>
       <c r="F41">
-        <v>564.01</v>
+        <v>381.04</v>
       </c>
       <c r="G41">
-        <v>132.1</v>
+        <v>150.53</v>
       </c>
       <c r="H41">
-        <v>30015.49</v>
+        <v>238.59</v>
       </c>
       <c r="I41">
-        <v>5.38</v>
+        <v>6.65</v>
       </c>
       <c r="J41">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1756,25 +1756,25 @@
         <v>16</v>
       </c>
       <c r="D42">
-        <v>2.727</v>
+        <v>4.961</v>
       </c>
       <c r="E42">
-        <v>340.86</v>
+        <v>620.0700000000001</v>
       </c>
       <c r="F42">
-        <v>2977.18</v>
+        <v>1863.01</v>
       </c>
       <c r="G42">
-        <v>230.4</v>
+        <v>205.82</v>
       </c>
       <c r="H42">
         <v>69730.3</v>
       </c>
       <c r="I42">
-        <v>2.44</v>
+        <v>4.27</v>
       </c>
       <c r="J42">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1788,25 +1788,25 @@
         <v>32</v>
       </c>
       <c r="D43">
-        <v>3.239</v>
+        <v>19.823</v>
       </c>
       <c r="E43">
-        <v>404.92</v>
+        <v>2477.92</v>
       </c>
       <c r="F43">
-        <v>8432.6</v>
+        <v>1337.66</v>
       </c>
       <c r="G43">
-        <v>55836.67</v>
+        <v>218.11</v>
       </c>
       <c r="H43">
-        <v>63176.7</v>
+        <v>40108.03</v>
       </c>
       <c r="I43">
-        <v>1.63</v>
+        <v>7.39</v>
       </c>
       <c r="J43">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1820,25 +1820,25 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>112.896</v>
+        <v>114.925</v>
       </c>
       <c r="E44">
-        <v>441</v>
+        <v>448.93</v>
       </c>
       <c r="F44">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="G44">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="H44">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="I44">
-        <v>14.78</v>
+        <v>17.15</v>
       </c>
       <c r="J44">
-        <v>2.67</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1852,25 +1852,25 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>138.884</v>
+        <v>189.685</v>
       </c>
       <c r="E45">
-        <v>542.52</v>
+        <v>740.96</v>
       </c>
       <c r="F45">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G45">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H45">
-        <v>2.13</v>
+        <v>1.82</v>
       </c>
       <c r="I45">
-        <v>9.550000000000001</v>
+        <v>13.26</v>
       </c>
       <c r="J45">
-        <v>1.4</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1884,25 +1884,25 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>203.805</v>
+        <v>213.69</v>
       </c>
       <c r="E46">
-        <v>796.11</v>
+        <v>834.73</v>
       </c>
       <c r="F46">
         <v>1.06</v>
       </c>
       <c r="G46">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="H46">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="I46">
-        <v>7.83</v>
+        <v>8.56</v>
       </c>
       <c r="J46">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1916,25 +1916,25 @@
         <v>8</v>
       </c>
       <c r="D47">
-        <v>121.272</v>
+        <v>174.588</v>
       </c>
       <c r="E47">
-        <v>473.72</v>
+        <v>681.98</v>
       </c>
       <c r="F47">
-        <v>13.54</v>
+        <v>10.08</v>
       </c>
       <c r="G47">
-        <v>5.41</v>
+        <v>5.73</v>
       </c>
       <c r="H47">
-        <v>8.9</v>
+        <v>9.02</v>
       </c>
       <c r="I47">
-        <v>4.22</v>
+        <v>6.57</v>
       </c>
       <c r="J47">
-        <v>0.96</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1948,25 +1948,25 @@
         <v>16</v>
       </c>
       <c r="D48">
-        <v>97.34</v>
+        <v>623.7809999999999</v>
       </c>
       <c r="E48">
-        <v>380.24</v>
+        <v>2436.64</v>
       </c>
       <c r="F48">
-        <v>97.01000000000001</v>
+        <v>17.35</v>
       </c>
       <c r="G48">
-        <v>8.1</v>
+        <v>7.07</v>
       </c>
       <c r="H48">
-        <v>12.22</v>
+        <v>10.94</v>
       </c>
       <c r="I48">
-        <v>3.1</v>
+        <v>15.03</v>
       </c>
       <c r="J48">
-        <v>0.43</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1980,25 +1980,25 @@
         <v>32</v>
       </c>
       <c r="D49">
-        <v>109.018</v>
+        <v>327.335</v>
       </c>
       <c r="E49">
-        <v>425.85</v>
+        <v>1278.65</v>
       </c>
       <c r="F49">
-        <v>244.97</v>
+        <v>42.15</v>
       </c>
       <c r="G49">
-        <v>8.77</v>
+        <v>6.43</v>
       </c>
       <c r="H49">
-        <v>15.55</v>
+        <v>9.66</v>
       </c>
       <c r="I49">
-        <v>1.87</v>
+        <v>4.24</v>
       </c>
       <c r="J49">
-        <v>0.23</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>

--- a/cpu_affinity/fio_logs/ext4_results.xlsx
+++ b/cpu_affinity/fio_logs/ext4_results.xlsx
@@ -460,20 +460,20 @@
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="16" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
     <col width="10" customWidth="1" min="16" max="16"/>
     <col width="10" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
     <col width="10" customWidth="1" min="19" max="19"/>
     <col width="14" customWidth="1" min="20" max="20"/>
-    <col width="10" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
     <col width="10" customWidth="1" min="22" max="22"/>
-    <col width="20" customWidth="1" min="23" max="23"/>
-    <col width="20" customWidth="1" min="24" max="24"/>
-    <col width="11" customWidth="1" min="25" max="25"/>
+    <col width="10" customWidth="1" min="23" max="23"/>
+    <col width="10" customWidth="1" min="24" max="24"/>
+    <col width="19" customWidth="1" min="25" max="25"/>
     <col width="11" customWidth="1" min="26" max="26"/>
     <col width="10" customWidth="1" min="27" max="27"/>
     <col width="10" customWidth="1" min="28" max="28"/>
@@ -481,11 +481,11 @@
     <col width="10" customWidth="1" min="30" max="30"/>
     <col width="10" customWidth="1" min="31" max="31"/>
     <col width="10" customWidth="1" min="32" max="32"/>
-    <col width="20" customWidth="1" min="33" max="33"/>
-    <col width="19" customWidth="1" min="34" max="34"/>
-    <col width="11" customWidth="1" min="35" max="35"/>
-    <col width="11" customWidth="1" min="36" max="36"/>
-    <col width="11" customWidth="1" min="37" max="37"/>
+    <col width="10" customWidth="1" min="33" max="33"/>
+    <col width="10" customWidth="1" min="34" max="34"/>
+    <col width="10" customWidth="1" min="35" max="35"/>
+    <col width="20" customWidth="1" min="36" max="36"/>
+    <col width="10" customWidth="1" min="37" max="37"/>
     <col width="12" customWidth="1" min="38" max="38"/>
     <col width="10" customWidth="1" min="39" max="39"/>
     <col width="10" customWidth="1" min="40" max="40"/>
@@ -493,11 +493,11 @@
     <col width="10" customWidth="1" min="42" max="42"/>
     <col width="10" customWidth="1" min="43" max="43"/>
     <col width="20" customWidth="1" min="44" max="44"/>
-    <col width="20" customWidth="1" min="45" max="45"/>
-    <col width="20" customWidth="1" min="46" max="46"/>
-    <col width="10" customWidth="1" min="47" max="47"/>
+    <col width="10" customWidth="1" min="45" max="45"/>
+    <col width="10" customWidth="1" min="46" max="46"/>
+    <col width="20" customWidth="1" min="47" max="47"/>
     <col width="10" customWidth="1" min="48" max="48"/>
-    <col width="20" customWidth="1" min="49" max="49"/>
+    <col width="10" customWidth="1" min="49" max="49"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -741,148 +741,148 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10100</v>
+        <v>6104</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17700</v>
+        <v>13200</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>25700</v>
+        <v>23000</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>31700</v>
+        <v>31200</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31300</v>
+        <v>31400</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>25400</v>
+        <v>25000</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13000</v>
+        <v>18400</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>45400</v>
+        <v>40400</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>90200</v>
+        <v>84100</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>171000</v>
+        <v>159000</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>288000</v>
+        <v>266000</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>391000</v>
+        <v>367000</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>14600</v>
+        <v>11800</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>28500</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>26100</v>
+        <v>26300</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>5977</v>
+        <v>6773</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>201000</v>
+        <v>493000</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>284000</v>
+        <v>659000</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>344000</v>
+        <v>777000</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>269000</v>
+        <v>847000</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>219000</v>
+        <v>810000</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>181000</v>
+        <v>235000</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21500</v>
+        <v>13800</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>30600</v>
+        <v>20300</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>33500</v>
+        <v>21400</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>33200</v>
+        <v>21300</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>33100</v>
+        <v>17900</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>35100</v>
+        <v>17700</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>688000</v>
+        <v>435000</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>915000</v>
+        <v>664000</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>925000</v>
+        <v>590000</v>
       </c>
       <c r="AI3" s="4" t="n">
-        <v>1012000</v>
+        <v>618000</v>
       </c>
       <c r="AJ3" s="4" t="n">
-        <v>1018000</v>
+        <v>545000</v>
       </c>
       <c r="AK3" s="4" t="n">
-        <v>1094000</v>
+        <v>586000</v>
       </c>
       <c r="AL3" s="4" t="n">
-        <v>7984</v>
+        <v>13300</v>
       </c>
       <c r="AM3" s="4" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="AN3" s="4" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="AO3" s="4" t="n">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="AP3" s="4" t="n">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="AQ3" s="4" t="n">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="AR3" s="4" t="n">
-        <v>111000</v>
+        <v>368000</v>
       </c>
       <c r="AS3" s="4" t="n">
-        <v>120000</v>
+        <v>469000</v>
       </c>
       <c r="AT3" s="4" t="n">
-        <v>132000</v>
+        <v>546000</v>
       </c>
       <c r="AU3" s="4" t="n">
-        <v>141000</v>
+        <v>600000</v>
       </c>
       <c r="AV3" s="4" t="n">
-        <v>141000</v>
+        <v>624000</v>
       </c>
       <c r="AW3" s="4" t="n">
-        <v>142000</v>
+        <v>631000</v>
       </c>
     </row>
     <row r="4">
@@ -892,148 +892,148 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1317</v>
+        <v>800</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2322</v>
+        <v>1725</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>3374</v>
+        <v>3144</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4156</v>
+        <v>4094</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4106</v>
+        <v>4122</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3335</v>
+        <v>3277</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>53.4</v>
+        <v>75.2</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>700</v>
+        <v>652</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1180</v>
+        <v>1091</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1603</v>
+        <v>1505</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1907</v>
+        <v>1547</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2991</v>
+        <v>2970</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3329</v>
+        <v>3340</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3730</v>
+        <v>3735</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>3420</v>
+        <v>3441</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>783</v>
+        <v>888</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>822</v>
+        <v>2018</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1164</v>
+        <v>2701</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1408</v>
+        <v>3181</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1102</v>
+        <v>3468</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>898</v>
+        <v>3318</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>743</v>
+        <v>963</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2818</v>
+        <v>1811</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4006</v>
+        <v>2658</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4396</v>
+        <v>2805</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4354</v>
+        <v>2788</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4339</v>
+        <v>2348</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>4603</v>
+        <v>2315</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2818</v>
+        <v>1784</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3748</v>
+        <v>2718</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3787</v>
+        <v>2418</v>
       </c>
       <c r="AI4" s="4" t="n">
-        <v>4146</v>
+        <v>2533</v>
       </c>
       <c r="AJ4" s="4" t="n">
-        <v>4168</v>
+        <v>2234</v>
       </c>
       <c r="AK4" s="4" t="n">
-        <v>4482</v>
+        <v>2401</v>
       </c>
       <c r="AL4" s="4" t="n">
-        <v>1047</v>
+        <v>1737</v>
       </c>
       <c r="AM4" s="4" t="n">
-        <v>1972</v>
+        <v>2037</v>
       </c>
       <c r="AN4" s="4" t="n">
-        <v>2307</v>
+        <v>2294</v>
       </c>
       <c r="AO4" s="4" t="n">
-        <v>2444</v>
+        <v>2511</v>
       </c>
       <c r="AP4" s="4" t="n">
-        <v>2568</v>
+        <v>2560</v>
       </c>
       <c r="AQ4" s="4" t="n">
-        <v>2581</v>
+        <v>2589</v>
       </c>
       <c r="AR4" s="4" t="n">
-        <v>455</v>
+        <v>1506</v>
       </c>
       <c r="AS4" s="4" t="n">
-        <v>491</v>
+        <v>1923</v>
       </c>
       <c r="AT4" s="4" t="n">
-        <v>541</v>
+        <v>2237</v>
       </c>
       <c r="AU4" s="4" t="n">
-        <v>578</v>
+        <v>2458</v>
       </c>
       <c r="AV4" s="4" t="n">
-        <v>576</v>
+        <v>2557</v>
       </c>
       <c r="AW4" s="4" t="n">
-        <v>583</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="5">
@@ -1043,148 +1043,148 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>99.34</v>
+        <v>163.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>112.37</v>
+        <v>148.72</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>154.47</v>
+        <v>165.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>247.3</v>
+        <v>251.61</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>501.48</v>
+        <v>499.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1249.77</v>
+        <v>1270.98</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>76.07342</v>
+        <v>53.97438</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>43.36119</v>
+        <v>47.20539</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>42.99559</v>
+        <v>46.40375</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>45.299</v>
+        <v>49.47726</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>53.85823000000001</v>
+        <v>59.43224</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>79.521</v>
+        <v>86.49132</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>22.14977</v>
+        <v>21.96</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>23.70644</v>
+        <v>23.58</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>29.21</v>
+        <v>28.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>50.64</v>
+        <v>53.2</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>347.92</v>
+        <v>334.19</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>3759.66</v>
+        <v>3139.41</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.83587</v>
+        <v>0.87581</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.87697</v>
+        <v>1.05415</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.08688</v>
+        <v>1.17454</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.29672</v>
+        <v>1.89342</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>25.76403</v>
+        <v>10.75014</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>135.39513</v>
+        <v>80.94328999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>46.26</v>
+        <v>72.05</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>65.14</v>
+        <v>96.62</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>118.37</v>
+        <v>186.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>231.72</v>
+        <v>363.46</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>471.36</v>
+        <v>877.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>910.12</v>
+        <v>1810.09</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.36509</v>
+        <v>2.18148</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.08868</v>
+        <v>2.8636</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.141640000000001</v>
+        <v>6.52319</v>
       </c>
       <c r="AI5" s="4" t="n">
-        <v>7.68583</v>
+        <v>12.56657</v>
       </c>
       <c r="AJ5" s="4" t="n">
-        <v>15.38793</v>
+        <v>28.84371</v>
       </c>
       <c r="AK5" s="4" t="n">
-        <v>28.95871</v>
+        <v>54.06825</v>
       </c>
       <c r="AL5" s="4" t="n">
-        <v>25.68</v>
+        <v>23.05</v>
       </c>
       <c r="AM5" s="4" t="n">
-        <v>25.92</v>
+        <v>24.97</v>
       </c>
       <c r="AN5" s="4" t="n">
-        <v>30.36</v>
+        <v>29.86</v>
       </c>
       <c r="AO5" s="4" t="n">
-        <v>180.5</v>
+        <v>184.95</v>
       </c>
       <c r="AP5" s="4" t="n">
-        <v>543.53</v>
+        <v>566.92</v>
       </c>
       <c r="AQ5" s="4" t="n">
-        <v>1343.03</v>
+        <v>1318.56</v>
       </c>
       <c r="AR5" s="4" t="n">
-        <v>0.9104500000000001</v>
+        <v>0.9314199999999999</v>
       </c>
       <c r="AS5" s="4" t="n">
-        <v>0.9905700000000001</v>
+        <v>0.95763</v>
       </c>
       <c r="AT5" s="4" t="n">
-        <v>1.05987</v>
+        <v>1.03556</v>
       </c>
       <c r="AU5" s="4" t="n">
-        <v>20.95505</v>
+        <v>5.85643</v>
       </c>
       <c r="AV5" s="4" t="n">
-        <v>69.73621</v>
+        <v>16.86985</v>
       </c>
       <c r="AW5" s="4" t="n">
-        <v>181.96536</v>
+        <v>41.69602</v>
       </c>
     </row>
     <row r="6">
@@ -1194,148 +1194,148 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>1139</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2638</v>
+        <v>2671</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>104.96</v>
+        <v>99.84</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>86.52800000000001</v>
+        <v>91.648</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>86.52800000000001</v>
+        <v>92.672</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>103.936</v>
+        <v>113.152</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>140.288</v>
+        <v>154.624</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>240.64</v>
+        <v>264.192</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>29.056</v>
+        <v>29</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>30.592</v>
+        <v>30</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>37</v>
+        <v>36.608</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>1.272</v>
+        <v>1.288</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.384</v>
+        <v>1.72</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.784</v>
+        <v>1.928</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.056</v>
+        <v>3.152</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>4.256</v>
+        <v>4.384</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>4.512</v>
+        <v>4.768</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>379</v>
+        <v>537</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>807</v>
+        <v>1254</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1631</v>
+        <v>3425</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>3392</v>
+        <v>6980</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>0.66</v>
+        <v>0.868</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.708</v>
+        <v>0.86</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.064</v>
+        <v>1.4</v>
       </c>
       <c r="AI6" s="4" t="n">
-        <v>1.432</v>
+        <v>2.128</v>
       </c>
       <c r="AJ6" s="4" t="n">
-        <v>1.512</v>
+        <v>2.192</v>
       </c>
       <c r="AK6" s="4" t="n">
-        <v>1.4</v>
+        <v>2.224</v>
       </c>
       <c r="AL6" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM6" s="4" t="n">
         <v>27</v>
-      </c>
-      <c r="AM6" s="4" t="n">
-        <v>28</v>
       </c>
       <c r="AN6" s="4" t="n">
         <v>34</v>
       </c>
       <c r="AO6" s="4" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AP6" s="4" t="n">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="AQ6" s="4" t="n">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="AR6" s="4" t="n">
         <v>1.288</v>
       </c>
       <c r="AS6" s="4" t="n">
-        <v>1.48</v>
+        <v>1.432</v>
       </c>
       <c r="AT6" s="4" t="n">
-        <v>1.608</v>
+        <v>1.592</v>
       </c>
       <c r="AU6" s="4" t="n">
-        <v>5.856</v>
+        <v>5.152</v>
       </c>
       <c r="AV6" s="4" t="n">
-        <v>8.096</v>
+        <v>6.88</v>
       </c>
       <c r="AW6" s="4" t="n">
-        <v>8.512</v>
+        <v>6.624</v>
       </c>
     </row>
     <row r="7">
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>363</v>
@@ -1360,133 +1360,133 @@
         <v>1336</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>3032</v>
+        <v>3064</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>1449.984</v>
+        <v>104.96</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>103.936</v>
+        <v>110.08</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>114.176</v>
+        <v>120.32</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>136.192</v>
+        <v>148.48</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>195.584</v>
+        <v>214.016</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>354.304</v>
+        <v>382.976</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>30.848</v>
+        <v>31</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>32.128</v>
+        <v>39</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>59</v>
+        <v>42.752</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>106431</v>
+        <v>107480</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>1.64</v>
+        <v>1.688</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>1.88</v>
+        <v>2.192</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>2.416</v>
+        <v>2.608</v>
       </c>
       <c r="W7" s="4" t="n">
         <v>4.192</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.984</v>
+        <v>6.048</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>7.2</v>
+        <v>6.816</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>212</v>
+        <v>367</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>420</v>
+        <v>693</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>1090</v>
+        <v>1565</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>2040</v>
+        <v>3949</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>3982</v>
+        <v>8848</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>27.776</v>
+        <v>33.024</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>95.744</v>
+        <v>138.24</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>199.68</v>
+        <v>305.152</v>
       </c>
       <c r="AI7" s="4" t="n">
-        <v>366.592</v>
+        <v>602.112</v>
       </c>
       <c r="AJ7" s="4" t="n">
-        <v>684.032</v>
+        <v>1122.304</v>
       </c>
       <c r="AK7" s="4" t="n">
-        <v>1056.768</v>
+        <v>1941.504</v>
       </c>
       <c r="AL7" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM7" s="4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN7" s="4" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AO7" s="4" t="n">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="AP7" s="4" t="n">
-        <v>247</v>
+        <v>32900</v>
       </c>
       <c r="AQ7" s="4" t="n">
-        <v>46924</v>
+        <v>64750</v>
       </c>
       <c r="AR7" s="4" t="n">
-        <v>1.704</v>
+        <v>1.656</v>
       </c>
       <c r="AS7" s="4" t="n">
-        <v>1.944</v>
+        <v>1.912</v>
       </c>
       <c r="AT7" s="4" t="n">
-        <v>2.224</v>
+        <v>2.16</v>
       </c>
       <c r="AU7" s="4" t="n">
-        <v>9.151999999999999</v>
+        <v>8.384</v>
       </c>
       <c r="AV7" s="4" t="n">
-        <v>12.096</v>
+        <v>11.712</v>
       </c>
       <c r="AW7" s="4" t="n">
-        <v>13.76</v>
+        <v>11.072</v>
       </c>
     </row>
     <row r="8">
@@ -1496,148 +1496,148 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.39</v>
+        <v>42.95</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>17.86</v>
+        <v>36.05</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>14.31</v>
+        <v>23.77</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>9.43</v>
+        <v>14.28</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>4.59</v>
+        <v>6.94</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.91</v>
+        <v>3.35</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>10.69</v>
+        <v>11.02</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>10.19</v>
+        <v>8.91</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.26</v>
+        <v>6.64</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>6.29</v>
+        <v>5.8</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>5.03</v>
+        <v>4.77</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>3.84</v>
+        <v>3.5</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>36.12</v>
+        <v>41.27</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>34.8</v>
+        <v>49.58</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>29.75</v>
+        <v>30.79</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>21.33</v>
+        <v>22.63</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>20.49</v>
+        <v>18.1</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>22.19</v>
+        <v>51.79</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>15.77</v>
+        <v>42.66</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>12.82</v>
+        <v>30.08</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>7.7</v>
+        <v>23.79</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>4.49</v>
+        <v>15.64</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.72</v>
+        <v>2.76</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>51.32</v>
+        <v>45.61</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>45.56</v>
+        <v>43.92</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>27.7</v>
+        <v>30.97</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>18.86</v>
+        <v>19.1</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>5.39</v>
+        <v>4.08</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>55.79</v>
+        <v>39.1</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>39.81</v>
+        <v>36.88</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>32.38</v>
+        <v>28.6</v>
       </c>
       <c r="AI8" s="4" t="n">
-        <v>19.04</v>
+        <v>19.73</v>
       </c>
       <c r="AJ8" s="4" t="n">
-        <v>9.98</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK8" s="4" t="n">
-        <v>5.32</v>
+        <v>5.28</v>
       </c>
       <c r="AL8" s="4" t="n">
-        <v>33.85</v>
+        <v>50.41</v>
       </c>
       <c r="AM8" s="4" t="n">
-        <v>35.2</v>
+        <v>35.94</v>
       </c>
       <c r="AN8" s="4" t="n">
-        <v>21.29</v>
+        <v>24.32</v>
       </c>
       <c r="AO8" s="4" t="n">
-        <v>15.58</v>
+        <v>17.77</v>
       </c>
       <c r="AP8" s="4" t="n">
-        <v>13.4</v>
+        <v>11.43</v>
       </c>
       <c r="AQ8" s="4" t="n">
-        <v>6.65</v>
+        <v>6.15</v>
       </c>
       <c r="AR8" s="4" t="n">
-        <v>15.99</v>
+        <v>49.02</v>
       </c>
       <c r="AS8" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>35.08</v>
       </c>
       <c r="AT8" s="4" t="n">
-        <v>4.91</v>
+        <v>24.71</v>
       </c>
       <c r="AU8" s="4" t="n">
-        <v>5.27</v>
+        <v>18.21</v>
       </c>
       <c r="AV8" s="4" t="n">
-        <v>4.3</v>
+        <v>15.59</v>
       </c>
       <c r="AW8" s="4" t="n">
-        <v>2.39</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="9">
@@ -1647,148 +1647,148 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>0.27</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>2.08</v>
+        <v>2.74</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>1.08</v>
+        <v>0.82</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.85</v>
+        <v>1.01</v>
       </c>
       <c r="O9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="R9" s="4" t="n">
         <v>0.5600000000000001</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.71</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>3.52</v>
+        <v>7.72</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>3.09</v>
+        <v>6.59</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>1.95</v>
+        <v>4.34</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>0.87</v>
+        <v>2.57</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>0.32</v>
+        <v>1.49</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>1.03</v>
+        <v>0.57</v>
       </c>
       <c r="AB9" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AJ9" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL9" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM9" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AN9" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AO9" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AP9" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="AI9" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="AJ9" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AK9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AL9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AM9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AN9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AO9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AP9" s="4" t="n">
-        <v>0.37</v>
-      </c>
       <c r="AQ9" s="4" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AR9" s="4" t="n">
-        <v>2.29</v>
+        <v>6.18</v>
       </c>
       <c r="AS9" s="4" t="n">
-        <v>1.21</v>
+        <v>5.06</v>
       </c>
       <c r="AT9" s="4" t="n">
-        <v>0.67</v>
+        <v>3.65</v>
       </c>
       <c r="AU9" s="4" t="n">
-        <v>1.09</v>
+        <v>4.24</v>
       </c>
       <c r="AV9" s="4" t="n">
-        <v>0.68</v>
+        <v>2.72</v>
       </c>
       <c r="AW9" s="4" t="n">
-        <v>0.34</v>
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
